--- a/cms/document/客户端目录结构说明.xlsx
+++ b/cms/document/客户端目录结构说明.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="460" windowWidth="30660" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="2480" yWindow="460" windowWidth="25400" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="美术目录" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户端目录结构!$D$134:$D$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户端目录结构!$D$113:$D$147</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="301">
   <si>
     <t>SourceAsset</t>
   </si>
@@ -88,9 +88,6 @@
     <t>importModels</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
     <t>texture</t>
   </si>
   <si>
@@ -113,12 +110,6 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>Best HTTP (Pro)</t>
-  </si>
-  <si>
-    <t>duijuui.jpg</t>
-  </si>
-  <si>
     <t>Prefabs</t>
   </si>
   <si>
@@ -138,12 +129,6 @@
   </si>
   <si>
     <t>smcs.rsp</t>
-  </si>
-  <si>
-    <t>New Terrain.asset</t>
-  </si>
-  <si>
-    <t>zhuyan_dazhao.unity</t>
   </si>
   <si>
     <t>StreamingAssets</t>
@@ -165,34 +150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DOTween</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HockeyAppUnityAndroid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathologicalGames</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>protobuf-net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存放各种插件</t>
     <rPh sb="0" eb="1">
       <t>cun'fang</t>
@@ -209,166 +166,11 @@
     <t>scenes</t>
   </si>
   <si>
-    <t>daxueshan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhaomagic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhaopy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yunmengze</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>animations</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UIRoot.prefab</t>
-  </si>
-  <si>
-    <t>materials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>textures</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存放状态机</t>
-    <rPh sb="0" eb="1">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuagn'tai'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物名@moxing.prefab</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu'ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个怪物文件夹下包括3个文件夹和一个prefab：</t>
-    <rPh sb="0" eb="1">
-      <t>mei'ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bao'kuo</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>g</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>wen'j</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>he</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yi'g</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物mesh信息</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xin'xi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存放怪物prefabs，每个怪物一个文件夹，文件夹名字用怪物名字？小怪和boss需要区分么？如果两种都用，放同一个文件夹么？</t>
-    <rPh sb="0" eb="1">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>mei'ge</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ming'zi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ming'zi</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>xiao'guai</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>he</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>qu'fen</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>me</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ru'guo</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>liang'zhong</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>dou'yong</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>tong'yi'ge</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>me</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ui</t>
@@ -740,106 +542,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spells</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    combo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    switchpet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗中UI贴图</t>
-    <rPh sb="0" eb="1">
-      <t>zhan'dou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tie'tu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>head</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>property</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质边框</t>
-    <rPh sb="0" eb="1">
-      <t>pin'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bian'kuang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换怪头像？</t>
-    <rPh sb="0" eb="1">
-      <t>huan'guai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tou'xiang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件夹很乱，需要重新分类整理</t>
-    <rPh sb="0" eb="1">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hen'luan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chong'xin</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fen'lei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zheng'li</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1147,43 +854,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>程序脚本，zz确认一下放在哪，Plugins下面有一个protobuf-net，是不是放一起</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'xu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao'b</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi'xia</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fang'zai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>na</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xia'm</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>you</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>shi'bu'shi</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>fang'yi'qi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存放各种摄像机prefab</t>
     <rPh sb="0" eb="1">
       <t>cun'fang</t>
@@ -1193,31 +863,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>she'xiang'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个mesh文件夹--&gt;y应该放在SourceAsset/effect/spells (小星修改）</t>
-    <rPh sb="0" eb="1">
-      <t>duo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>g</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ying'g</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fang'zai</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>xiao'xing</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>xiu'g</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1265,116 +910,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需要新建文件夹（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'j'j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多余删掉（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>duo'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shan'diao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存放场景prefab，每个场景一个文件夹，存放prefab及animations文件夹（用于存放状态机）</t>
-    <rPh sb="0" eb="1">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chang'jing</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>mei'ge</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>chang'jing</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ji'qi</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>wen'j</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>yong'yu</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>cun'fang'z</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>zhuang'tai'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术大招幕布场景，删掉材质、贴图文件夹（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>fa'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da'zhao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mu'bu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chang'jing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shan'diao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>cai'zhi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>tie'tu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>wen'j'j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理大招幕布场景，删掉材质、贴图文件夹（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>wu'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da'zhao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mu'b</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chang'jing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI配置，按界面分，如果有公用界面，则放入common文件夹</t>
     <rPh sb="2" eb="3">
       <t>pei'zhi</t>
@@ -1571,28 +1106,6 @@
   </si>
   <si>
     <t>目前不应将资源放在此目录下，以后统一挪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字体资源？ -需要调整目录放到Assets/Font（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>zi'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>mu'lu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fang'dao</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1665,22 +1178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>从script移动到script/Config下(xw)</t>
-    <rPh sb="0" eb="1">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yi'dong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>xia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每个AI一个脚本</t>
     <rPh sb="0" eb="1">
       <t>mei'ge</t>
@@ -1806,44 +1303,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目前有一些云梦泽的资源，删掉？（xw，sf）</t>
-    <rPh sb="0" eb="1">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yi'xie</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yun'meng'ze</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shan'diao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置公用UI贴图</t>
-    <rPh sb="0" eb="1">
-      <t>fang'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'yong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tie'tu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1904,25 +1363,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>更新联网功能，程序脚本，放到plugin（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lian'wang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暂时放在这里，后面需要zz调整功能后，将此文件夹内容挪到prefabs</t>
     <rPh sb="0" eb="1">
       <t>zan'shi</t>
@@ -1932,16 +1372,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>zhe'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多余删掉（xw）</t>
-    <rPh sb="0" eb="1">
-      <t>duo'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shan'diao</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2419,22 +1849,6 @@
     <t>/art</t>
   </si>
   <si>
-    <t>整理结果如下：（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存放特效资源</t>
     <rPh sb="0" eb="1">
       <t>cun'fang</t>
@@ -2589,37 +2003,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>各文件夹可能目前存在多余资源，需要清理（sf，xw，zz）</t>
-    <rPh sb="0" eb="1">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ke'neng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>cun'zai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>duo'yu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>qing'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目录</t>
     <rPh sb="0" eb="1">
       <t>m'lu</t>
@@ -2714,27 +2097,1084 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目录中存在多余资源，待清理（xw，zz，sf）</t>
-    <rPh sb="0" eb="1">
+    <t>font</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放字体资源</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    pet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    spell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff图标</t>
+    <rPh sb="4" eb="5">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物头像</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lihui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘资源</t>
+    <rPh sb="0" eb="1">
+      <t>li'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除icon，立绘外UI资源</t>
+    <rPh sb="0" eb="1">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月18日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序设定</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'dign</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个怪物文件夹下包括怪物模型和状态机</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhuang'tai'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放怪物prefabs，相同的怪物模型存放在一个文件夹内，文件夹名用怪物中文名拼音即可</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiang'tong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>cun'zai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>wen'j</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zhong'wen'ming</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>pin'yin</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ji'ke</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：</t>
+    <rPh sb="0" eb="1">
+      <t>li'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面存放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amute_boss@moxing.prefab</t>
+  </si>
+  <si>
+    <t>阿穆特prefab文件夹命名为amute</t>
+    <rPh sb="0" eb="1">
+      <t>a'mu't</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ming'ming</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amute_boss.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amute@moxing.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amute.controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss prefa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪 prefab</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'guai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss 状态机</t>
+    <rPh sb="5" eb="6">
+      <t>zhuang'tai'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪 状态机</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'guai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang'tai'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前存放错乱，有些怪物命名错误，需要调整（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cuo'luan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ming'ming</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个mesh文件夹，外面也散落着一些mesh文件，放在哪？--&gt;应该放在SourceAsset/effect/spells (zz）</t>
+    <rPh sb="0" eb="1">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wai'mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>san'luo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fang'zai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>na</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ying'g</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fang'zai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放场景prefab，每个场景一个文件夹，存放场景文件、光照贴图</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>guang'hzao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>tie'tu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstScene.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testByLiws.unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz确认下这两个是否重复</t>
+    <rPh sb="2" eb="3">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liang'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceAttr.csv</t>
+  </si>
+  <si>
+    <t>itemRandom.csv</t>
+  </si>
+  <si>
+    <t>mailSys.csv</t>
+  </si>
+  <si>
+    <t>sellItem.csv</t>
+  </si>
+  <si>
+    <t>shop.csv</t>
+  </si>
+  <si>
+    <t>技能特效、音效配置</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能配置_buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能配置_effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能配置_spell</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物配置</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件配置</t>
+    <rPh sb="0" eb="1">
+      <t>you'ijan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家属性</t>
+    <rPh sb="0" eb="1">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会配置</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用，删掉（zz，小龙）</t>
+    <rPh sb="0" eb="1">
+      <t>mei'yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shan'diao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao'long</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源打包对应表</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">装备_强化表 </t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiang'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用，删掉（zz，师叔）</t>
+    <rPh sb="0" eb="1">
+      <t>mei'yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shan'diao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表_开启章节</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格对应AI</t>
+    <rPh sb="0" eb="1">
+      <t>xing'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui'ying</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备_强化表</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiang'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表_对局层</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ceng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表_副本层</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ceng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表_掉落</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'bi'O</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>diao'luo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表_入口</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ru'kou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表_掉落</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>diao'luo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和drop区别是，可以合并么？可以合并到副本配置么？（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu'bie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>me</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>me</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具配置表</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'a</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具组配置表</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言配置表_配置数据</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yu'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi'ai'bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sh'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言配置表_UI</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yu'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi'ai'bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷懒配置表</t>
+    <rPh sb="0" eb="1">
+      <t>tou'lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务配置表</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励列表</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区别？配宝箱和任务奖励么？</t>
+    <rPh sb="0" eb="1">
+      <t>qu'bie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>me</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置表_固定、随机商品</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'ai'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级消耗</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐配置表</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话配置表</t>
+    <rPh sb="0" eb="1">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间配置表</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物基础属性配置</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物进阶配置表</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物弱点配置表</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗钻石配置：重置副本，购买体力</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ti'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端目录整理后更新，同步更新美术目录
+配置表增加说明</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hd'uuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>mu'lu</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong</t>
+    <rPh sb="5" eb="6">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前有五行属性的图标放在buff里，需要移出（zz）</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>cun'zai</t>
+      <t>wu'xing</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>duo'yu</t>
+      <t>shu'xing</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>zi'yuan</t>
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu'b</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>qing'li</t>
+      <t>fang'zai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi'chu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2863,14 +3303,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2883,10 +3324,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8"/>
@@ -3172,7 +3617,7 @@
   <dimension ref="B3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3183,17 +3628,17 @@
   <sheetData>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -3204,35 +3649,41 @@
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
@@ -3331,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P166"/>
+  <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3347,1058 +3798,1066 @@
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E43" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+      <c r="F64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+      <c r="F67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+      <c r="F68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+      <c r="F69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+      <c r="E71" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+      <c r="E72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" t="s">
+        <v>83</v>
+      </c>
+      <c r="G101" t="s">
+        <v>230</v>
+      </c>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="P102" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>220</v>
+      </c>
+      <c r="G103" t="s">
+        <v>225</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>221</v>
+      </c>
+      <c r="G104" t="s">
+        <v>226</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>222</v>
+      </c>
+      <c r="G105" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>223</v>
+      </c>
+      <c r="G106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>228</v>
+      </c>
+      <c r="G107" t="s">
+        <v>229</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" t="s">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>91</v>
+      </c>
+      <c r="F113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>253</v>
+      </c>
+      <c r="F114" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>95</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>99</v>
+      </c>
+      <c r="F116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>103</v>
+      </c>
+      <c r="F117" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>107</v>
+      </c>
+      <c r="F118" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>111</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>115</v>
+      </c>
+      <c r="F120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>93</v>
+      </c>
+      <c r="F123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>97</v>
+      </c>
+      <c r="F124" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>105</v>
+      </c>
+      <c r="F126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>109</v>
+      </c>
+      <c r="F127" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>113</v>
+      </c>
+      <c r="F128" t="s">
+        <v>277</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="2"/>
-      <c r="E75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="F131" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>92</v>
+      </c>
+      <c r="F132" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>96</v>
+      </c>
+      <c r="F133" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>255</v>
+      </c>
+      <c r="F134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>100</v>
+      </c>
+      <c r="F135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>108</v>
+      </c>
+      <c r="F137" t="s">
+        <v>285</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>112</v>
+      </c>
+      <c r="F138" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>256</v>
+      </c>
+      <c r="F139" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>257</v>
+      </c>
+      <c r="F140" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>116</v>
+      </c>
+      <c r="F141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>120</v>
+      </c>
+      <c r="F142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>90</v>
+      </c>
+      <c r="F143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="2"/>
-      <c r="F76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="2"/>
-      <c r="E77" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="2"/>
-      <c r="E78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="2"/>
-      <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="2"/>
-      <c r="F80" t="s">
+      <c r="F144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
         <v>98</v>
       </c>
-      <c r="G80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="2"/>
-      <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="2"/>
-      <c r="E82" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D83" s="2"/>
-      <c r="E83" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D84" s="2"/>
-      <c r="E84" t="s">
-        <v>86</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E105" t="s">
-        <v>160</v>
-      </c>
-      <c r="F105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E107" t="s">
-        <v>161</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F108" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>173</v>
-      </c>
-      <c r="E110" t="s">
-        <v>174</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="113" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E114" t="s">
-        <v>101</v>
-      </c>
-      <c r="F114" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
+      <c r="F145" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
         <v>102</v>
       </c>
-      <c r="F115" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E117" t="s">
-        <v>105</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E118" t="s">
+      <c r="F146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
         <v>106</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="119" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
-        <v>107</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="120" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F120" t="s">
-        <v>64</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="F147" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
         <v>110</v>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P120" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F121" t="s">
-        <v>108</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="122" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F122" t="s">
-        <v>109</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="123" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F123" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="124" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F124" t="s">
-        <v>112</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="F148" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
         <v>118</v>
       </c>
-      <c r="J124" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K124" s="3"/>
-    </row>
-    <row r="125" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F125" t="s">
-        <v>113</v>
-      </c>
-      <c r="G125" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F126" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F127" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="128" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="F128" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F129" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>121</v>
-      </c>
-      <c r="E131" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>122</v>
-      </c>
-      <c r="E132" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
-        <v>124</v>
-      </c>
-      <c r="F133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E134" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E138" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E142" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
-        <v>155</v>
+      <c r="F150" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E46" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4406,10 +4865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I53"/>
+  <dimension ref="A3:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4422,144 +4881,144 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -4567,20 +5026,20 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,85 +5047,109 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>257</v>
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/cms/document/客户端目录结构说明.xlsx
+++ b/cms/document/客户端目录结构说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="460" windowWidth="25400" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="5320" yWindow="460" windowWidth="30420" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="美术目录" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户端目录结构!$D$113:$D$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户端目录结构!$D$112:$D$145</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="299">
   <si>
     <t>SourceAsset</t>
   </si>
@@ -204,67 +204,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>存放特效prefab以及资源，每一个子文件夹包括animations，textures，materials三个文件夹分别存放对应特效的动作、贴图、材质</t>
-    <rPh sb="0" eb="1">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>te'xiao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yi'ji</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>mei'yi'ge</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>bao'kuo</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>san'fang</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>g</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>fen'bie</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>dui'ying</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>te'xiao</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>de</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>dong'zuo</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>tie'tu</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>cai'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>common</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -598,9 +537,6 @@
     <t>spell.csv</t>
   </si>
   <si>
-    <t>assetLang.csv</t>
-  </si>
-  <si>
     <t>lazy.csv</t>
   </si>
   <si>
@@ -644,9 +580,6 @@
   </si>
   <si>
     <t>unitStage.csv</t>
-  </si>
-  <si>
-    <t>battleUnitAi.csv</t>
   </si>
   <si>
     <t>rewardGroup.csv</t>
@@ -867,19 +800,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>存放掉落道具</t>
-    <rPh sb="0" eb="1">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>diao'luo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dao'ju</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落动画</t>
     <rPh sb="0" eb="1">
       <t>diao'luo</t>
@@ -1067,19 +987,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需要修改路径（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lu'jing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用于存放游戏启动必须的资源</t>
     <rPh sb="0" eb="1">
       <t>yong'yu</t>
@@ -1102,10 +1009,6 @@
     <rPh sb="11" eb="12">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前不应将资源放在此目录下，以后统一挪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1271,22 +1174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>存放特效的模型</t>
-    <rPh sb="0" eb="1">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>te'xiao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mo'xign</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每个场景一个文件夹</t>
     <rPh sb="0" eb="1">
       <t>mei'ge</t>
@@ -1307,31 +1194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>怪物头像，技能图标，道具图标，buff图标</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tou'xiang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'neng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tu'b</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>dao'ju</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>tu'b</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>tu'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>立绘</t>
     <rPh sb="0" eb="1">
       <t>li'hui</t>
@@ -1862,52 +1724,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特效资源以打包的形式提交，每次提交包含所有游戏内特效</t>
-    <rPh sb="0" eb="1">
-      <t>te'xiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>da'bao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xing'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>mei'ci</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>bao'han</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>you'xi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>nei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>te'xiao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>提交新包替换旧包，不需要以日期命名添加多个文件</t>
     <rPh sb="0" eb="1">
       <t>ti'jiao</t>
@@ -2111,10 +1927,6 @@
     <rPh sb="4" eb="5">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2388,80 +2200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目前存放错乱，有些怪物命名错误，需要调整（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cuo'luan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>you'xie</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ming'ming</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>cuo'wu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>tiao'zheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个mesh文件夹，外面也散落着一些mesh文件，放在哪？--&gt;应该放在SourceAsset/effect/spells (zz）</t>
-    <rPh sb="0" eb="1">
-      <t>duo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>g</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wen'j'j</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wai'mian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>san'luo</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhe</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yi'xie</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>wen'jian</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>fang'zai</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>na</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ying'g</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>fang'zai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存放场景prefab，每个场景一个文件夹，存放场景文件、光照贴图</t>
     <rPh sb="0" eb="1">
       <t>cun'fang</t>
@@ -2507,28 +2245,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zz确认下这两个是否重复</t>
-    <rPh sb="2" eb="3">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhe</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>liang'g</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chong'fu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>allianceAttr.csv</t>
   </si>
   <si>
@@ -2618,19 +2334,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>没用，删掉（zz，小龙）</t>
-    <rPh sb="0" eb="1">
-      <t>mei'yong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shan'diao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xiao'long</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资源打包对应表</t>
     <rPh sb="0" eb="1">
       <t>zi'yuan</t>
@@ -2660,19 +2363,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>没用，删掉（zz，师叔）</t>
-    <rPh sb="0" eb="1">
-      <t>mei'yong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shan'diao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi'shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>副本配置表_开启章节</t>
     <rPh sb="0" eb="1">
       <t>f'b</t>
@@ -2750,7 +2440,300 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>副本配置表_掉落</t>
+    <t>副本配置表_入口</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ru'kou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具配置表</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'a</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言配置表_配置数据</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yu'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi'ai'bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sh'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言配置表_UI</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yu'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi'ai'bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷懒配置表</t>
+    <rPh sb="0" eb="1">
+      <t>tou'lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务配置表</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励列表</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置表_固定、随机商品</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'ai'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级消耗</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐配置表</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话配置表</t>
+    <rPh sb="0" eb="1">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间配置表</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物基础属性配置</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物进阶配置表</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物弱点配置表</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗钻石配置：重置副本，购买体力</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ti'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端目录整理后更新，同步更新美术目录
+配置表增加说明</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hd'uuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非以上四类icon放入此文件夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言配置表_资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>languageAsset.csv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置表_副本掉落（调用InstanceDrop）</t>
     <rPh sb="0" eb="1">
       <t>fu'b</t>
     </rPh>
@@ -2766,25 +2749,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>副本配置表_入口</t>
+    <t>副本配置表_副本掉落组（调用reward）</t>
     <rPh sb="0" eb="1">
       <t>fu'b</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ru'kou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本配置表_掉落</t>
-    <rPh sb="0" eb="1">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi'biao</t>
+      <t>pei'zhi'bi'O</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>diao'luo</t>
@@ -2792,389 +2765,465 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>和drop区别是，可以合并么？可以合并到副本配置么？（zz）</t>
-    <rPh sb="0" eb="1">
+    <t>奖励列表（调用rewardGroup）</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置表_随机商品</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放特效prefab以及资源，每一个子文件夹包括animations，textures，materials，mesh四个文件夹分别存放对应特效的动作、贴图、材质、mesh</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'yi'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>si</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>g</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>fen'bie</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>de</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>tie'tu</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>cai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：特效相关的所有预置和资源全部存在放在此处，不需要将资源存放到sourceAsset</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu'zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>he</t>
     </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cun'zai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ci'chu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bu'xu'a'yo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放掉落道具prefabs</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个场景存放一个文件夹，存放场景资源如模型，贴图，材质，mesh</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jign</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'j'j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tie'tu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月21日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若2D为外包制作，同时存放发包需求</t>
+    <rPh sb="0" eb="1">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wai'bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fa'bao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端目录整理后检查，修改部分遗漏问题后更新目录
+同步更新美术目录</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu'lu</t>
+    </rPh>
     <rPh sb="5" eb="6">
-      <t>qu'bie</t>
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'lou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>mu'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效资源以特效prefab导出的打包的形式提交，包名以资源名命名</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dao'chu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da'bao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xing'shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ming'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：外包制作时需要确保特效资源目录存放与客户端目录结构一致，命名一致，以免出现导入导出带来重复资源或者资源被覆盖的问题</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wai'bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'zuo</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>shi</t>
     </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>que'bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jie'gou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ming'ming</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yi'mian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dao'ru</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dao'chu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>dai'lai</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fu'gai</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>de</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端特效相关目录如下：</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mu'lu</t>
+    </rPh>
     <rPh sb="9" eb="10">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>he'bing</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>me</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>he'bing</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>me</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具配置表</t>
-    <rPh sb="0" eb="1">
-      <t>dao'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi'a</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具组配置表</t>
-    <rPh sb="0" eb="1">
-      <t>dao'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言配置表_配置数据</t>
-    <rPh sb="0" eb="1">
-      <t>duo'yu'yan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pei'zhi'ai'bao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>sh'ju</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言配置表_UI</t>
-    <rPh sb="0" eb="1">
-      <t>duo'yu'yan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pei'zhi'ai'bao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷懒配置表</t>
-    <rPh sb="0" eb="1">
-      <t>tou'lan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务配置表</t>
-    <rPh sb="0" eb="1">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励列表</t>
-    <rPh sb="0" eb="1">
-      <t>jiang'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lie'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区别？配宝箱和任务奖励么？</t>
-    <rPh sb="0" eb="1">
-      <t>qu'bie</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao'xiang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jiang'li</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>me</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店配置表</t>
-    <rPh sb="0" eb="1">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店配置表_固定、随机商品</t>
-    <rPh sb="0" eb="1">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi'ai'bao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gu'ding</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shang'pin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能升级消耗</t>
-    <rPh sb="0" eb="1">
-      <t>ji'neng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sheng'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiao'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐配置表</t>
-    <rPh sb="0" eb="1">
-      <t>yin'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话配置表</t>
-    <rPh sb="0" eb="1">
-      <t>dui'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间配置表</t>
-    <rPh sb="0" eb="1">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物基础属性配置</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>pei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物进阶配置表</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'jie</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物弱点配置表</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ruo'dian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗钻石配置：重置副本，购买体力</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'hao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zuan'shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chong'zhi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>gou'mai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ti'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端目录整理后更新，同步更新美术目录
-配置表增加说明</t>
-    <rPh sb="0" eb="1">
-      <t>ke'hd'uuan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>mu'lu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>geng'x</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>geng'x</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>mei'shu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>mu'lu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>pei'zhi'biao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>shuo'ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前有五行属性的图标放在buff里，需要移出（zz）</t>
-    <rPh sb="0" eb="1">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wu'xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tu'b</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fang'zai</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>li</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>yi'chu</t>
+      <t>ru'xia</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3303,12 +3352,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
@@ -3328,10 +3378,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8"/>
@@ -3346,6 +3397,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3617,10 +3671,10 @@
   <dimension ref="B3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
@@ -3628,17 +3682,17 @@
   <sheetData>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -3649,46 +3703,52 @@
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
@@ -3782,15 +3842,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P150"/>
+  <dimension ref="A2:P148"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="11.5" style="5"/>
     <col min="2" max="2" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
@@ -3800,7 +3860,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3813,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3821,7 +3881,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3829,12 +3889,12 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,7 +3907,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3855,7 +3915,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3863,7 +3923,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3892,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
@@ -3900,44 +3960,44 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="3" t="s">
-        <v>248</v>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
@@ -3945,581 +4005,582 @@
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
       <c r="E25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>133</v>
+      <c r="F25" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>236</v>
-      </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>237</v>
-      </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>242</v>
-      </c>
-      <c r="J35" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
       <c r="E38" t="s">
-        <v>249</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
       <c r="E40" t="s">
-        <v>251</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="3"/>
+      <c r="E41" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E43" s="7" t="s">
-        <v>146</v>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+      <c r="E60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+      <c r="F61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D63" s="2"/>
       <c r="E63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>73</v>
+      </c>
+      <c r="G64" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="2"/>
-      <c r="E65" t="s">
-        <v>67</v>
-      </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="2"/>
-      <c r="E66" t="s">
-        <v>68</v>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="2"/>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
       <c r="F67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68" s="2"/>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
       <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69" s="2"/>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
       <c r="F69" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="2"/>
-      <c r="E70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" t="s">
-        <v>72</v>
+      <c r="D70" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="2"/>
-      <c r="E71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" t="s">
-        <v>73</v>
+      <c r="D71" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="2"/>
-      <c r="E72" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" t="s">
-        <v>154</v>
-      </c>
-      <c r="G72" s="3"/>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>59</v>
+      <c r="D83" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>61</v>
+      <c r="D84" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="2" t="s">
-        <v>20</v>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="2" t="s">
-        <v>55</v>
+      <c r="C87" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>0</v>
+      <c r="E89" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>18</v>
-      </c>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>289</v>
+      </c>
       <c r="E93" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="97" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>77</v>
+      <c r="E97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E98" t="s">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s">
-        <v>80</v>
+      <c r="D98" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G99" t="s">
+        <v>220</v>
+      </c>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>19</v>
+      <c r="F100" t="s">
+        <v>209</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="P100" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
-        <v>82</v>
-      </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="G101" t="s">
-        <v>230</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H101" s="3"/>
       <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
     </row>
     <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="G102" t="s">
+        <v>216</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="P102" s="3" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="104" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G104" t="s">
-        <v>226</v>
-      </c>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
+        <v>214</v>
+      </c>
     </row>
     <row r="105" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="G105" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G106" t="s">
-        <v>224</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
     </row>
     <row r="107" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F107" t="s">
-        <v>228</v>
-      </c>
-      <c r="G107" t="s">
-        <v>229</v>
-      </c>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G108" s="3"/>
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="109" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>33</v>
+      <c r="D109" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="3:16" x14ac:dyDescent="0.25">
@@ -4527,167 +4588,165 @@
         <v>84</v>
       </c>
       <c r="E110" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>85</v>
-      </c>
       <c r="E111" t="s">
         <v>86</v>
       </c>
+      <c r="F111" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="112" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="F113" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" t="s">
         <v>253</v>
-      </c>
-      <c r="F114" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>95</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>266</v>
+        <v>101</v>
+      </c>
+      <c r="F115" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F116" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F117" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F118" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>111</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>269</v>
+        <v>88</v>
+      </c>
+      <c r="F119" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F120" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F121" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F122" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F123" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F124" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F125" t="s">
-        <v>274</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F126" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F128" t="s">
-        <v>277</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F129" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="F130" t="s">
         <v>280</v>
@@ -4695,183 +4754,165 @@
     </row>
     <row r="131" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F131" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="F132" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F133" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="F134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G135" s="3"/>
     </row>
     <row r="136" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F136" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="F137" t="s">
-        <v>285</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="F138" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="F139" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="F140" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F141" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F142" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F143" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F144" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F145" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F146" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F147" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
-        <v>114</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
-        <v>118</v>
-      </c>
-      <c r="F150" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I55"/>
+  <dimension ref="A3:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="8" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
@@ -4881,46 +4922,46 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4928,228 +4969,353 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>173</v>
+      <c r="E16" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>185</v>
+      <c r="D17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>197</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>182</v>
+      <c r="E20" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>195</v>
+      <c r="C21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>183</v>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" t="s">
         <v>216</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" t="s">
-        <v>298</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>165</v>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/cms/document/客户端目录结构说明.xlsx
+++ b/cms/document/客户端目录结构说明.xlsx
@@ -15,6 +15,7 @@
     <sheet name="目录" sheetId="4" r:id="rId1"/>
     <sheet name="客户端目录结构" sheetId="2" r:id="rId2"/>
     <sheet name="美术目录" sheetId="3" r:id="rId3"/>
+    <sheet name="其他资源获取" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户端目录结构!$D$112:$D$145</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="318">
   <si>
     <t>SourceAsset</t>
   </si>
@@ -3224,6 +3225,196 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ru'xia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgMusic</t>
+  </si>
+  <si>
+    <t>effectSound</t>
+  </si>
+  <si>
+    <t>音乐音效资源总表.xlsx</t>
+  </si>
+  <si>
+    <t>技能tips.xlsx</t>
+  </si>
+  <si>
+    <t>翻译需求.xlsx</t>
+  </si>
+  <si>
+    <t>其他资源获取</t>
+    <rPh sb="0" eb="1">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo'qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加音乐音效、翻译获取目录情况</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qing'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译内容</t>
+    <rPh sb="0" eb="1">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn：/cms/sound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn：/cms/language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存放背景音乐</t>
+    <rPh sb="0" eb="1">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin'yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存放音效资源</t>
+    <rPh sb="0" eb="1">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新说明文档</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源总表.xlsx</t>
+  </si>
+  <si>
+    <t>翻译需求以及翻译结果存放，包括UI文字、提示信息等</t>
+    <rPh sb="0" eb="1">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'zi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能tips翻译文档</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'dang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3670,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3696,7 +3887,9 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="10" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -3751,9 +3944,15 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
@@ -3835,6 +4034,7 @@
   <hyperlinks>
     <hyperlink ref="B4" location="客户端目录结构!A1" display="客户端目录结构说明"/>
     <hyperlink ref="B5" location="美术目录!A1" display="美术目录结构说明"/>
+    <hyperlink ref="B6" location="其他资源获取!A1" display="其他资源获取"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4906,10 +5106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I69"/>
+  <dimension ref="A3:I71"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5083,238 +5283,246 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="D38" s="1"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>3</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>41</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>42</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
         <v>44</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
         <v>45</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>40</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>296</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="2" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="2"/>
-      <c r="E53" t="s">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+      <c r="E55" t="s">
         <v>62</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F55" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>121</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="3"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>210</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="D65" t="s">
-        <v>211</v>
-      </c>
-      <c r="E65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-      <c r="D66" t="s">
-        <v>212</v>
-      </c>
-      <c r="E66" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+      <c r="D69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+      <c r="D70" t="s">
         <v>278</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5323,4 +5531,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cms/document/客户端目录结构说明.xlsx
+++ b/cms/document/客户端目录结构说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="460" windowWidth="30420" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="30420" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="329">
   <si>
     <t>SourceAsset</t>
   </si>
@@ -3415,6 +3415,141 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recharge.csv</t>
+  </si>
+  <si>
+    <t>shopAutoRefresh.csv</t>
+  </si>
+  <si>
+    <t>商店自动刷新配置</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shua'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城配置</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI标准.xlsx</t>
+  </si>
+  <si>
+    <t>存放各UI制作完成的示意图及制作说明，以960*640为标准制作</t>
+    <rPh sb="0" eb="1">
+      <t>cun'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'yi'tu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shuo'm'n'g</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao'zhun</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhi'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI制作说明文档</t>
+    <rPh sb="2" eb="3">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI示意及说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增两个配置表说明
+美术目录增加UI示意及说明文件夹</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shuo'ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wen'j'j</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3552,7 +3687,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3568,6 +3703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -3862,7 +3998,7 @@
   <dimension ref="B3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3954,10 +4090,16 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+    <row r="19" spans="2:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
@@ -4042,10 +4184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P148"/>
+  <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58:F69"/>
+    <sheetView topLeftCell="A111" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4986,114 +5128,130 @@
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="F135" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="G135" s="3"/>
     </row>
     <row r="136" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="F139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F142" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F144" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F145" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
+        <v>108</v>
+      </c>
+      <c r="F148" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>111</v>
+      </c>
+      <c r="F149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
         <v>115</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F150" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5106,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I71"/>
+  <dimension ref="A3:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5461,7 +5619,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>207</v>
       </c>
@@ -5471,7 +5629,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>156</v>
       </c>
@@ -5482,7 +5640,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" t="s">
         <v>211</v>
@@ -5491,7 +5649,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" t="s">
         <v>212</v>
@@ -5500,7 +5658,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" t="s">
         <v>213</v>
@@ -5509,7 +5667,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" t="s">
         <v>278</v>
@@ -5518,12 +5676,28 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/cms/document/客户端目录结构说明.xlsx
+++ b/cms/document/客户端目录结构说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="460" windowWidth="37300" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="37300" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="其他资源获取" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户端目录结构!$D$158:$D$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户端目录结构!$D$176:$D$209</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="420">
   <si>
     <t>SourceAsset</t>
   </si>
@@ -989,21 +989,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立绘</t>
-    <rPh sb="0" eb="1">
-      <t>li'hui</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lihui</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>打包后自动生成不用管</t>
     <rPh sb="0" eb="1">
       <t>da'bao'hou</t>
@@ -1565,16 +1550,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>存放UI贴图</t>
-    <rPh sb="0" eb="1">
-      <t>cun'fang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tie'tu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存放界面的最终效果图</t>
     <rPh sb="0" eb="1">
       <t>cun'fang</t>
@@ -1783,22 +1758,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>除icon，立绘外UI资源</t>
-    <rPh sb="0" eb="1">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>li'hui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zi'yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2015年09月18日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2441,10 +2400,6 @@
   </si>
   <si>
     <t xml:space="preserve">    others</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非以上四类icon放入此文件夹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4316,6 +4271,415 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年03月15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新客户端和资源目录中UI目录结构</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mu'lu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'gou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多于一个界面使用的公用UI资源</t>
+    <rPh sb="0" eb="1">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    loseGuide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本失败指引资源</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'yin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局，结算相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'jie'mian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成界面相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damaoxian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险界面相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非以上五类icon放入此文件夹</t>
+    <rPh sb="3" eb="4">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ruodian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点图标</t>
+    <rPh sb="0" eb="1">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本列表界面底图</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'tu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级界面资源</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading界面资源</t>
+    <rPh sb="7" eb="8">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件界面资源</t>
+    <rPh sb="0" eb="1">
+      <t>you'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面资源</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp界面资源</t>
+    <rPh sb="3" eb="4">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiandao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到界面资源</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录相关界面资源</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociaty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会界面相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴界面相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_hole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongtianta_tower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼副本界面相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔副本界面相关资源</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能界面独占的资源放在独立文件夹里，公用资源放common</t>
+    <rPh sb="0" eb="1">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4767,7 +5131,7 @@
   <dimension ref="B3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4778,22 +5142,22 @@
   <sheetData>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -4801,99 +5165,105 @@
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="68" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="34" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
@@ -4963,10 +5333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P196"/>
+  <dimension ref="A2:P214"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="B130" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B145" sqref="A145:XFD170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5028,7 +5398,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5081,22 +5451,22 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
@@ -5104,7 +5474,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
@@ -5112,15 +5482,15 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F23" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
@@ -5128,7 +5498,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
@@ -5136,7 +5506,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
@@ -5144,7 +5514,7 @@
         <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
@@ -5152,41 +5522,41 @@
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F29" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F31" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F32" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
@@ -5194,7 +5564,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
@@ -5210,92 +5580,92 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G44" s="14" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G45" s="14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -5304,7 +5674,7 @@
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
       <c r="G56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -5312,7 +5682,7 @@
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F57" s="3"/>
       <c r="G57" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -5320,39 +5690,39 @@
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F58" s="3"/>
       <c r="G58" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
@@ -5360,18 +5730,18 @@
         <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F69" s="3"/>
     </row>
@@ -5695,126 +6065,126 @@
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F121" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G121" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H121" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J124" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G126" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H126" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F130" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G130" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H130" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G131" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H131" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G133" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G134" s="15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="135" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G135" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="4:8" x14ac:dyDescent="0.25">
@@ -5831,10 +6201,10 @@
     </row>
     <row r="139" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E139" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.25">
@@ -5863,7 +6233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>75</v>
       </c>
@@ -5871,417 +6241,578 @@
         <v>76</v>
       </c>
       <c r="G145" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
+        <v>385</v>
+      </c>
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>383</v>
+      </c>
+      <c r="G147" t="s">
+        <v>384</v>
+      </c>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>386</v>
+      </c>
+      <c r="G148" t="s">
+        <v>387</v>
+      </c>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>388</v>
+      </c>
+      <c r="G149" t="s">
+        <v>389</v>
+      </c>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>390</v>
+      </c>
+      <c r="G150" t="s">
+        <v>391</v>
+      </c>
+      <c r="J150" s="3"/>
+    </row>
+    <row r="151" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>195</v>
+      </c>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>196</v>
+      </c>
+      <c r="G152" t="s">
+        <v>201</v>
+      </c>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>197</v>
+      </c>
+      <c r="G153" t="s">
+        <v>202</v>
+      </c>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="P153" s="3"/>
+    </row>
+    <row r="154" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>198</v>
+      </c>
+      <c r="G154" t="s">
+        <v>203</v>
+      </c>
+      <c r="H154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
         <v>199</v>
       </c>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="P146" s="3"/>
-    </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F147" t="s">
+      <c r="G155" t="s">
         <v>200</v>
       </c>
-      <c r="G147" t="s">
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>393</v>
+      </c>
+      <c r="G156" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>254</v>
+      </c>
+      <c r="G157" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="158" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>395</v>
+      </c>
+      <c r="G158" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="159" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>397</v>
+      </c>
+      <c r="G159" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="160" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>204</v>
+      </c>
+      <c r="G160" t="s">
         <v>205</v>
       </c>
-      <c r="H147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F148" t="s">
-        <v>201</v>
-      </c>
-      <c r="G148" t="s">
-        <v>206</v>
-      </c>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F149" t="s">
-        <v>202</v>
-      </c>
-      <c r="G149" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F150" t="s">
-        <v>203</v>
-      </c>
-      <c r="G150" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F151" t="s">
-        <v>259</v>
-      </c>
-      <c r="G151" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F152" t="s">
-        <v>208</v>
-      </c>
-      <c r="G152" t="s">
-        <v>209</v>
-      </c>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
+    </row>
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>399</v>
+      </c>
+      <c r="G161" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>401</v>
+      </c>
+      <c r="G162" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="163" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>403</v>
+      </c>
+      <c r="G163" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>405</v>
+      </c>
+      <c r="G164" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="165" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>407</v>
+      </c>
+      <c r="G165" t="s">
+        <v>408</v>
+      </c>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>409</v>
+      </c>
+      <c r="G166" t="s">
+        <v>410</v>
+      </c>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>411</v>
+      </c>
+      <c r="G167" t="s">
+        <v>412</v>
+      </c>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>413</v>
+      </c>
+      <c r="G168" t="s">
+        <v>414</v>
+      </c>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>415</v>
+      </c>
+      <c r="G169" t="s">
+        <v>417</v>
+      </c>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>416</v>
+      </c>
+      <c r="G170" t="s">
+        <v>418</v>
+      </c>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
+    <row r="173" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
         <v>77</v>
       </c>
-      <c r="E155" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
+      <c r="E173" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
         <v>78</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E174" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
+    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
         <v>80</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F175" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E158" t="s">
+    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
         <v>84</v>
       </c>
-      <c r="F158" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E159" t="s">
+      <c r="F176" t="s">
         <v>221</v>
-      </c>
-      <c r="F159" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E160" t="s">
-        <v>91</v>
-      </c>
-      <c r="F160" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
-        <v>95</v>
-      </c>
-      <c r="F161" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E162" t="s">
-        <v>99</v>
-      </c>
-      <c r="F162" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E163" t="s">
-        <v>106</v>
-      </c>
-      <c r="F163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>110</v>
-      </c>
-      <c r="F164" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E165" t="s">
-        <v>82</v>
-      </c>
-      <c r="F165" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
-        <v>86</v>
-      </c>
-      <c r="F166" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
-        <v>89</v>
-      </c>
-      <c r="F167" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E168" t="s">
-        <v>93</v>
-      </c>
-      <c r="F168" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E169" t="s">
-        <v>97</v>
-      </c>
-      <c r="F169" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E170" t="s">
-        <v>101</v>
-      </c>
-      <c r="F170" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E171" t="s">
-        <v>104</v>
-      </c>
-      <c r="F171" t="s">
-        <v>263</v>
-      </c>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E172" t="s">
-        <v>108</v>
-      </c>
-      <c r="F172" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E173" t="s">
-        <v>222</v>
-      </c>
-      <c r="F173" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E174" t="s">
-        <v>81</v>
-      </c>
-      <c r="F174" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>85</v>
-      </c>
-      <c r="F175" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E176" t="s">
-        <v>262</v>
-      </c>
-      <c r="F176" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="177" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="F177" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="178" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="F178" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F179" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F180" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="F181" t="s">
-        <v>301</v>
-      </c>
-      <c r="G181" s="3"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="182" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F182" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="183" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F183" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="184" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="F184" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="185" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="F185" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>299</v>
+        <v>93</v>
       </c>
       <c r="F186" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F187" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F188" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F189" t="s">
-        <v>252</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G189" s="3"/>
     </row>
     <row r="190" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F190" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="F191" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="192" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F192" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F193" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="F194" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
+        <v>88</v>
+      </c>
+      <c r="F195" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>218</v>
+      </c>
+      <c r="F196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>92</v>
+      </c>
+      <c r="F197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>96</v>
+      </c>
+      <c r="F198" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>292</v>
+      </c>
+      <c r="F199" t="s">
+        <v>295</v>
+      </c>
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>100</v>
+      </c>
+      <c r="F200" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>103</v>
+      </c>
+      <c r="F201" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>219</v>
+      </c>
+      <c r="F202" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>220</v>
+      </c>
+      <c r="F203" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>293</v>
+      </c>
+      <c r="F204" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>107</v>
+      </c>
+      <c r="F205" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>111</v>
+      </c>
+      <c r="F206" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>83</v>
+      </c>
+      <c r="F207" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>87</v>
+      </c>
+      <c r="F208" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>90</v>
+      </c>
+      <c r="F209" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>94</v>
+      </c>
+      <c r="F210" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>98</v>
+      </c>
+      <c r="F211" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>102</v>
+      </c>
+      <c r="F212" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
         <v>105</v>
       </c>
-      <c r="F195" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E196" t="s">
+      <c r="F213" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
         <v>109</v>
       </c>
-      <c r="F196" t="s">
-        <v>256</v>
+      <c r="F214" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6301,10 +6832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I104"/>
+  <dimension ref="A3:P125"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:E60"/>
+    <sheetView topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6317,46 +6848,46 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
         <v>155</v>
-      </c>
-      <c r="D6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
         <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
         <v>157</v>
-      </c>
-      <c r="D8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6364,107 +6895,107 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -6472,28 +7003,28 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6501,7 +7032,7 @@
         <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D38" s="1"/>
       <c r="F38" s="3"/>
@@ -6510,17 +7041,17 @@
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -6530,7 +7061,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="D41" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -6540,7 +7071,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -6550,7 +7081,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="D43" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -6560,7 +7091,7 @@
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -6570,47 +7101,47 @@
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F46" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="E48" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="E49" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H49" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -6621,83 +7152,83 @@
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E51" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="E52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="E53" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="D54" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="D56" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F56" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="D57" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -6705,7 +7236,7 @@
       <c r="B59" s="6"/>
       <c r="D59" s="1"/>
       <c r="E59" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -6713,7 +7244,7 @@
       <c r="B60" s="6"/>
       <c r="D60" s="1"/>
       <c r="E60" s="16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -6721,32 +7252,32 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -6756,28 +7287,28 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="E69" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="E70" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="E71" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -6787,7 +7318,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -6797,17 +7328,17 @@
         <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="E74" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F74" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -6817,7 +7348,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -6827,7 +7358,7 @@
         <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -6837,7 +7368,7 @@
         <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -6847,54 +7378,54 @@
         <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="E79" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="E80" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F80" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F81" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D84" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D85" s="2"/>
       <c r="E85" t="s">
         <v>56</v>
@@ -6903,10 +7434,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>115</v>
       </c>
@@ -6914,12 +7445,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>123</v>
       </c>
@@ -6928,101 +7459,300 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
+      <c r="C93" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="C96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" t="s">
+        <v>385</v>
+      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="C97" t="s">
+        <v>383</v>
+      </c>
+      <c r="D97" t="s">
+        <v>384</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="C98" t="s">
+        <v>386</v>
+      </c>
+      <c r="D98" t="s">
+        <v>387</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="C99" t="s">
+        <v>388</v>
+      </c>
+      <c r="D99" t="s">
+        <v>389</v>
+      </c>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="C100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D100" t="s">
+        <v>391</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="C101" t="s">
+        <v>195</v>
+      </c>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="C102" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" t="s">
+        <v>201</v>
+      </c>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D103" t="s">
+        <v>202</v>
+      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="C104" t="s">
         <v>198</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="C105" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" t="s">
         <v>200</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="C106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D106" t="s">
+        <v>394</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="C107" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="C108" t="s">
+        <v>395</v>
+      </c>
+      <c r="D108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="C109" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="C110" t="s">
+        <v>204</v>
+      </c>
+      <c r="D110" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
-      <c r="D97" t="s">
-        <v>201</v>
-      </c>
-      <c r="E97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
-      <c r="D98" t="s">
-        <v>202</v>
-      </c>
-      <c r="E98" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-      <c r="D99" t="s">
-        <v>203</v>
-      </c>
-      <c r="E99" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
-      <c r="D100" t="s">
-        <v>259</v>
-      </c>
-      <c r="E100" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>307</v>
-      </c>
-      <c r="C103" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>304</v>
-      </c>
-      <c r="D104" t="s">
-        <v>306</v>
+    <row r="111" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="C111" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="C112" t="s">
+        <v>401</v>
+      </c>
+      <c r="D112" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="C113" t="s">
+        <v>403</v>
+      </c>
+      <c r="D113" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="C114" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="C116" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" t="s">
+        <v>410</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="C117" t="s">
+        <v>411</v>
+      </c>
+      <c r="D117" t="s">
+        <v>412</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="C118" t="s">
+        <v>413</v>
+      </c>
+      <c r="D118" t="s">
+        <v>414</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="C119" t="s">
+        <v>415</v>
+      </c>
+      <c r="D119" t="s">
+        <v>417</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="C120" t="s">
+        <v>416</v>
+      </c>
+      <c r="D120" t="s">
+        <v>418</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>301</v>
+      </c>
+      <c r="C124" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7051,62 +7781,62 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
